--- a/ACA_grafici.xlsx
+++ b/ACA_grafici.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Desktop\Progetto-Aca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC25E294-A064-4352-B2BD-EC4AE28CE69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425DA297-D775-475F-8112-8BFC278ECD0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="4" xr2:uid="{183DBCB2-A8BF-4F3F-9D3C-A60A01EA9192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="5" xr2:uid="{183DBCB2-A8BF-4F3F-9D3C-A60A01EA9192}"/>
   </bookViews>
   <sheets>
     <sheet name="2CPU" sheetId="5" r:id="rId1"/>
@@ -13972,26 +13972,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparisons!$C$3:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.44885208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> 1.521672   </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.44745277</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.35050228</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -14064,10 +14044,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Comparisons!$B$3:$B$6</c:f>
+              <c:f>Comparisons!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -14079,16 +14059,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$C$3:$C$6</c:f>
+              <c:f>Comparisons!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #.##0000000\ _€_-;\-* #.##0000000\ _€_-;_-* "-"??????\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.4488520799999998</c:v>
                 </c:pt>
@@ -14100,6 +14083,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>1.3505022800000004</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.46465921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14434,10 +14420,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Comparisons!$B$33:$B$36</c:f>
+              <c:f>Comparisons!$B$33:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -14449,16 +14435,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$C$33:$C$36</c:f>
+              <c:f>Comparisons!$C$33:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>_-* #.##0000000\ _€_-;\-* #.##0000000\ _€_-;_-* "-"??????\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>2.1731723300000003</c:v>
                 </c:pt>
@@ -14470,6 +14459,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0.36673902999999991</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.26298497999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14796,10 +14788,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Comparisons!$V$4:$V$7</c:f>
+              <c:f>Comparisons!$V$4:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -14811,16 +14803,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$W$4:$W$7</c:f>
+              <c:f>Comparisons!$W$4:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #.##0000000\ _€_-;\-* #.##0000000\ _€_-;_-* "-"??????\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>6.9254153699999996</c:v>
                 </c:pt>
@@ -14832,6 +14827,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>8.2129663400000013</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>7.006440190000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15158,10 +15156,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Comparisons!$V$38:$V$41</c:f>
+              <c:f>Comparisons!$V$38:$V$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -15173,16 +15171,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$W$38:$W$41</c:f>
+              <c:f>Comparisons!$W$38:$W$42</c:f>
               <c:numCache>
                 <c:formatCode>_-* #.##0000000\ _€_-;\-* #.##0000000\ _€_-;_-* "-"??????\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>8.649008720000003</c:v>
                 </c:pt>
@@ -15194,6 +15195,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>1.3540664000000004</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1200440699999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -49738,7 +49742,7 @@
         <v>2.390784</v>
       </c>
       <c r="I3">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" ref="I3:I34" si="0">SUM($H$3:$H$102)/100</f>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49750,28 +49754,28 @@
         <v>1.4450000000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">SUM($B$3:$B$102)/100</f>
+        <f t="shared" ref="C4:C67" si="1">SUM($B$3:$B$102)/100</f>
         <v>1.4474527699999995</v>
       </c>
       <c r="D4">
         <v>0.57824200000000003</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">SUM($D$3:$D$102)/100</f>
+        <f t="shared" ref="E4:E67" si="2">SUM($D$3:$D$102)/100</f>
         <v>0.57990707999999991</v>
       </c>
       <c r="F4" s="3">
         <v>7.0178900000000004</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="2">SUM($F$3:$F$102)/100</f>
+        <f t="shared" ref="G4:G67" si="3">SUM($F$3:$F$102)/100</f>
         <v>6.9774088700000005</v>
       </c>
       <c r="H4">
         <v>2.390946</v>
       </c>
       <c r="I4">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49783,28 +49787,28 @@
         <v>1.4368909999999999</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D5">
         <v>0.59131900000000004</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F5" s="3">
         <v>7.0184369999999996</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H5">
         <v>2.3919109999999999</v>
       </c>
       <c r="I5">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49816,28 +49820,28 @@
         <v>1.4455750000000001</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D6">
         <v>0.58134699999999995</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F6" s="3">
         <v>6.9426509999999997</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H6">
         <v>2.4007640000000001</v>
       </c>
       <c r="I6">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49849,28 +49853,28 @@
         <v>1.449584</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D7">
         <v>0.57969999999999999</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F7" s="3">
         <v>6.9490819999999998</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H7">
         <v>2.3972910000000001</v>
       </c>
       <c r="I7">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49882,28 +49886,28 @@
         <v>1.4426110000000001</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D8">
         <v>0.58771200000000001</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F8" s="3">
         <v>6.9278180000000003</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H8">
         <v>2.377786</v>
       </c>
       <c r="I8">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49915,28 +49919,28 @@
         <v>1.450526</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D9">
         <v>0.60759200000000002</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F9" s="3">
         <v>6.8902939999999999</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H9">
         <v>2.3971140000000002</v>
       </c>
       <c r="I9">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49948,28 +49952,28 @@
         <v>1.448027</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D10">
         <v>0.59138500000000005</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F10" s="3">
         <v>7.0121140000000004</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H10">
         <v>2.5185439999999999</v>
       </c>
       <c r="I10">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -49981,28 +49985,28 @@
         <v>1.452275</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D11">
         <v>0.57753200000000005</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F11" s="3">
         <v>6.9162419999999996</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H11">
         <v>2.4264169999999998</v>
       </c>
       <c r="I11">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50014,28 +50018,28 @@
         <v>1.4511579999999999</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D12">
         <v>0.57805099999999998</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F12" s="3">
         <v>6.9589569999999998</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H12">
         <v>2.3998930000000001</v>
       </c>
       <c r="I12">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50047,28 +50051,28 @@
         <v>1.4531019999999999</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D13">
         <v>0.58136900000000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F13" s="3">
         <v>6.919537</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H13">
         <v>2.4157999999999999</v>
       </c>
       <c r="I13">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50080,28 +50084,28 @@
         <v>1.4396500000000001</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D14">
         <v>0.58028900000000005</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F14" s="3">
         <v>6.9612369999999997</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H14">
         <v>2.380099</v>
       </c>
       <c r="I14">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50113,28 +50117,28 @@
         <v>1.4467080000000001</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D15">
         <v>0.57866399999999996</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F15" s="3">
         <v>7.0073850000000002</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H15">
         <v>2.3839079999999999</v>
       </c>
       <c r="I15">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50146,28 +50150,28 @@
         <v>1.441327</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D16">
         <v>0.57783899999999999</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F16" s="3">
         <v>6.9918329999999997</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H16">
         <v>2.3732920000000002</v>
       </c>
       <c r="I16">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50179,28 +50183,28 @@
         <v>1.448337</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D17">
         <v>0.57726900000000003</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F17" s="3">
         <v>6.9143359999999996</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H17">
         <v>2.3923930000000002</v>
       </c>
       <c r="I17">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50212,28 +50216,28 @@
         <v>1.4550670000000001</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D18">
         <v>0.57773600000000003</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F18" s="3">
         <v>6.9412039999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H18">
         <v>2.5201899999999999</v>
       </c>
       <c r="I18">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50245,28 +50249,28 @@
         <v>1.4409400000000001</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D19">
         <v>0.57488099999999998</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F19" s="3">
         <v>6.8644020000000001</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H19">
         <v>2.3977110000000001</v>
       </c>
       <c r="I19">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50278,28 +50282,28 @@
         <v>1.4513529999999999</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D20">
         <v>0.57906299999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F20" s="3">
         <v>6.9733530000000004</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H20">
         <v>2.4136700000000002</v>
       </c>
       <c r="I20">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50311,28 +50315,28 @@
         <v>1.4460059999999999</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D21">
         <v>0.57709200000000005</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F21" s="3">
         <v>6.9203700000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H21">
         <v>2.4046639999999999</v>
       </c>
       <c r="I21">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50344,28 +50348,28 @@
         <v>1.453665</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D22">
         <v>0.57503800000000005</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F22" s="3">
         <v>6.9772100000000004</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H22">
         <v>2.4280759999999999</v>
       </c>
       <c r="I22">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50377,28 +50381,28 @@
         <v>1.458826</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D23">
         <v>0.57228500000000004</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F23" s="3">
         <v>6.9851729999999996</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H23">
         <v>2.441065</v>
       </c>
       <c r="I23">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50410,28 +50414,28 @@
         <v>1.4581850000000001</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D24">
         <v>0.57089599999999996</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F24" s="3">
         <v>6.9751789999999998</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H24">
         <v>2.4217849999999999</v>
       </c>
       <c r="I24">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50443,28 +50447,28 @@
         <v>1.455193</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D25">
         <v>0.57914500000000002</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F25" s="3">
         <v>6.9689290000000002</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H25">
         <v>2.4174090000000001</v>
       </c>
       <c r="I25">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50476,28 +50480,28 @@
         <v>1.455336</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D26">
         <v>0.57736699999999996</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F26" s="3">
         <v>6.9456569999999997</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H26">
         <v>2.438647</v>
       </c>
       <c r="I26">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50509,28 +50513,28 @@
         <v>1.4588410000000001</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D27">
         <v>0.57789199999999996</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F27" s="3">
         <v>6.943155</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H27">
         <v>2.400598</v>
       </c>
       <c r="I27">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50542,28 +50546,28 @@
         <v>1.4528300000000001</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D28">
         <v>0.57760900000000004</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F28" s="3">
         <v>7.019571</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H28">
         <v>2.4045899999999998</v>
       </c>
       <c r="I28">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50575,28 +50579,28 @@
         <v>1.457349</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D29">
         <v>0.57757800000000004</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F29" s="3">
         <v>7.0066360000000003</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H29">
         <v>2.406695</v>
       </c>
       <c r="I29">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50608,28 +50612,28 @@
         <v>1.4547779999999999</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D30">
         <v>0.57620800000000005</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F30" s="3">
         <v>6.9835900000000004</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H30">
         <v>2.518913</v>
       </c>
       <c r="I30">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50641,28 +50645,28 @@
         <v>1.454183</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D31">
         <v>0.578183</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F31" s="3">
         <v>7.0121460000000004</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H31">
         <v>2.4147620000000001</v>
       </c>
       <c r="I31">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50674,28 +50678,28 @@
         <v>1.4507479999999999</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D32">
         <v>0.57840199999999997</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F32" s="3">
         <v>7.0992990000000002</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H32">
         <v>2.415956</v>
       </c>
       <c r="I32">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50707,28 +50711,28 @@
         <v>1.4396119999999999</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D33">
         <v>0.58152000000000004</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F33" s="3">
         <v>6.99552</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H33">
         <v>2.4568490000000001</v>
       </c>
       <c r="I33">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50740,28 +50744,28 @@
         <v>1.4462900000000001</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D34">
         <v>0.58411800000000003</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F34" s="3">
         <v>6.9852350000000003</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H34">
         <v>2.4051770000000001</v>
       </c>
       <c r="I34">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="0"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50773,28 +50777,28 @@
         <v>1.440391</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D35">
         <v>0.57261600000000001</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F35" s="3">
         <v>6.932658</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H35">
         <v>2.418952</v>
       </c>
       <c r="I35">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" ref="I35:I66" si="4">SUM($H$3:$H$102)/100</f>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50806,28 +50810,28 @@
         <v>1.4450400000000001</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D36">
         <v>0.58231299999999997</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F36" s="3">
         <v>7.0509040000000001</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H36">
         <v>2.3873920000000002</v>
       </c>
       <c r="I36">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50839,28 +50843,28 @@
         <v>1.4424920000000001</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D37">
         <v>0.57897600000000005</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F37" s="3">
         <v>6.9845680000000003</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H37">
         <v>2.4074</v>
       </c>
       <c r="I37">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50872,28 +50876,28 @@
         <v>1.4453800000000001</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D38">
         <v>0.578264</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F38" s="3">
         <v>7.0024100000000002</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H38">
         <v>2.4630070000000002</v>
       </c>
       <c r="I38">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50905,28 +50909,28 @@
         <v>1.44967</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D39">
         <v>0.58282999999999996</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F39" s="3">
         <v>7.0168850000000003</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H39">
         <v>2.4280029999999999</v>
       </c>
       <c r="I39">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50938,28 +50942,28 @@
         <v>1.442199</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D40">
         <v>0.57347899999999996</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F40" s="3">
         <v>7.0679119999999998</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H40">
         <v>2.4014869999999999</v>
       </c>
       <c r="I40">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -50971,28 +50975,28 @@
         <v>1.444688</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D41">
         <v>0.57927399999999996</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F41" s="3">
         <v>6.979444</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H41">
         <v>2.3938899999999999</v>
       </c>
       <c r="I41">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51004,28 +51008,28 @@
         <v>1.4454849999999999</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D42">
         <v>0.58052499999999996</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F42" s="3">
         <v>6.9393739999999999</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H42">
         <v>2.4096690000000001</v>
       </c>
       <c r="I42">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51037,28 +51041,28 @@
         <v>1.4446859999999999</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D43">
         <v>0.61682099999999995</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F43" s="3">
         <v>7.0551830000000004</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H43">
         <v>2.434469</v>
       </c>
       <c r="I43">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51070,28 +51074,28 @@
         <v>1.454882</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D44">
         <v>0.57633599999999996</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F44" s="3">
         <v>7.0006469999999998</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H44">
         <v>2.9888379999999999</v>
       </c>
       <c r="I44">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51103,28 +51107,28 @@
         <v>1.4417420000000001</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D45">
         <v>0.57538599999999995</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F45" s="3">
         <v>6.9593639999999999</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H45">
         <v>2.4207000000000001</v>
       </c>
       <c r="I45">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51136,28 +51140,28 @@
         <v>1.4351389999999999</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D46">
         <v>0.57549799999999995</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F46" s="3">
         <v>7.0134619999999996</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H46">
         <v>2.4473760000000002</v>
       </c>
       <c r="I46">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51169,28 +51173,28 @@
         <v>1.4411339999999999</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D47">
         <v>0.57558299999999996</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F47" s="3">
         <v>7.0887099999999998</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H47">
         <v>2.4172829999999998</v>
       </c>
       <c r="I47">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51202,28 +51206,28 @@
         <v>1.4490400000000001</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D48">
         <v>0.57584599999999997</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F48" s="3">
         <v>6.9611109999999998</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H48">
         <v>2.4419979999999999</v>
       </c>
       <c r="I48">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51235,28 +51239,28 @@
         <v>1.4478839999999999</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D49">
         <v>0.57460500000000003</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F49" s="3">
         <v>6.9933199999999998</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H49">
         <v>2.4163160000000001</v>
       </c>
       <c r="I49">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51268,28 +51272,28 @@
         <v>1.4487159999999999</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D50">
         <v>0.585592</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F50" s="3">
         <v>7.0038309999999999</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H50">
         <v>2.4342030000000001</v>
       </c>
       <c r="I50">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51301,28 +51305,28 @@
         <v>1.4414640000000001</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D51">
         <v>0.58369700000000002</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F51" s="3">
         <v>6.9886929999999996</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H51">
         <v>2.4135949999999999</v>
       </c>
       <c r="I51">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51334,28 +51338,28 @@
         <v>1.4403170000000001</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D52">
         <v>0.57562199999999997</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F52" s="3">
         <v>6.9931799999999997</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H52">
         <v>2.405421</v>
       </c>
       <c r="I52">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51367,28 +51371,28 @@
         <v>1.440704</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D53">
         <v>0.58006199999999997</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F53" s="3">
         <v>6.9632300000000003</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H53">
         <v>2.4385059999999998</v>
       </c>
       <c r="I53">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51400,28 +51404,28 @@
         <v>1.4491320000000001</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D54">
         <v>0.571797</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F54" s="3">
         <v>6.9427789999999998</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H54">
         <v>2.4285960000000002</v>
       </c>
       <c r="I54">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51433,28 +51437,28 @@
         <v>1.4413</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D55">
         <v>0.571218</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F55" s="3">
         <v>6.9457440000000004</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H55">
         <v>2.4490150000000002</v>
       </c>
       <c r="I55">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51466,28 +51470,28 @@
         <v>1.444375</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D56">
         <v>0.57237300000000002</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F56" s="3">
         <v>6.9576120000000001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H56">
         <v>2.401939</v>
       </c>
       <c r="I56">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51499,28 +51503,28 @@
         <v>1.4480280000000001</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D57">
         <v>0.57724799999999998</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F57" s="3">
         <v>7.0107379999999999</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H57">
         <v>2.4151150000000001</v>
       </c>
       <c r="I57">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51532,28 +51536,28 @@
         <v>1.444728</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D58">
         <v>0.57485200000000003</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F58" s="3">
         <v>6.993468</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H58">
         <v>2.4111389999999999</v>
       </c>
       <c r="I58">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51565,28 +51569,28 @@
         <v>1.44729</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D59">
         <v>0.57866499999999998</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F59" s="3">
         <v>6.9660380000000002</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H59">
         <v>2.5430679999999999</v>
       </c>
       <c r="I59">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51598,28 +51602,28 @@
         <v>1.4437249999999999</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D60">
         <v>0.57520300000000002</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F60" s="3">
         <v>6.9203939999999999</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H60">
         <v>2.387346</v>
       </c>
       <c r="I60">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51631,28 +51635,28 @@
         <v>1.4407350000000001</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D61">
         <v>0.57669000000000004</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F61" s="3">
         <v>6.9484430000000001</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H61">
         <v>2.411626</v>
       </c>
       <c r="I61">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51664,28 +51668,28 @@
         <v>1.4542550000000001</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D62">
         <v>0.57389999999999997</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F62" s="3">
         <v>6.9467410000000003</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H62">
         <v>2.4427629999999998</v>
       </c>
       <c r="I62">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51697,28 +51701,28 @@
         <v>1.44878</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D63">
         <v>0.57806900000000006</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F63" s="3">
         <v>6.9963749999999996</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H63">
         <v>2.4089200000000002</v>
       </c>
       <c r="I63">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51730,28 +51734,28 @@
         <v>1.4474830000000001</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D64">
         <v>0.57819100000000001</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F64" s="3">
         <v>7.0439449999999999</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H64">
         <v>2.428131</v>
       </c>
       <c r="I64">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51763,28 +51767,28 @@
         <v>1.4420850000000001</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D65">
         <v>0.57699100000000003</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F65" s="3">
         <v>6.9844369999999998</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H65">
         <v>2.3966949999999998</v>
       </c>
       <c r="I65">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51796,28 +51800,28 @@
         <v>1.447999</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D66">
         <v>0.57682299999999997</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F66" s="3">
         <v>6.889837</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H66">
         <v>2.4259469999999999</v>
       </c>
       <c r="I66">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="4"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51829,28 +51833,28 @@
         <v>1.444796</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D67">
         <v>0.57626900000000003</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F67" s="3">
         <v>7.0095619999999998</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H67">
         <v>2.4226380000000001</v>
       </c>
       <c r="I67">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" ref="I67:I102" si="5">SUM($H$3:$H$102)/100</f>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51862,28 +51866,28 @@
         <v>1.457827</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C102" si="3">SUM($B$3:$B$102)/100</f>
+        <f t="shared" ref="C68:C102" si="6">SUM($B$3:$B$102)/100</f>
         <v>1.4474527699999995</v>
       </c>
       <c r="D68">
         <v>0.56946799999999997</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E102" si="4">SUM($D$3:$D$102)/100</f>
+        <f t="shared" ref="E68:E102" si="7">SUM($D$3:$D$102)/100</f>
         <v>0.57990707999999991</v>
       </c>
       <c r="F68" s="3">
         <v>6.91282</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G102" si="5">SUM($F$3:$F$102)/100</f>
+        <f t="shared" ref="G68:G102" si="8">SUM($F$3:$F$102)/100</f>
         <v>6.9774088700000005</v>
       </c>
       <c r="H68">
         <v>2.4755229999999999</v>
       </c>
       <c r="I68">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51895,28 +51899,28 @@
         <v>1.4517</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D69">
         <v>0.57666399999999995</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F69" s="3">
         <v>6.9859070000000001</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H69">
         <v>2.4648569999999999</v>
       </c>
       <c r="I69">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51928,28 +51932,28 @@
         <v>1.4491270000000001</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D70">
         <v>0.579901</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F70" s="3">
         <v>6.9376119999999997</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H70">
         <v>2.4113180000000001</v>
       </c>
       <c r="I70">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51961,28 +51965,28 @@
         <v>1.4551890000000001</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D71">
         <v>0.61606799999999995</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F71" s="3">
         <v>6.974742</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H71">
         <v>2.588422</v>
       </c>
       <c r="I71">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -51994,28 +51998,28 @@
         <v>1.446985</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D72">
         <v>0.57952599999999999</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F72" s="3">
         <v>6.9928410000000003</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H72">
         <v>2.4002520000000001</v>
       </c>
       <c r="I72">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52027,28 +52031,28 @@
         <v>1.4524969999999999</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D73">
         <v>0.58319699999999997</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F73" s="3">
         <v>6.9552050000000003</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H73">
         <v>2.4111739999999999</v>
       </c>
       <c r="I73">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52060,28 +52064,28 @@
         <v>1.446769</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D74">
         <v>0.57242800000000005</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F74" s="3">
         <v>7.0039020000000001</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H74">
         <v>2.3954399999999998</v>
       </c>
       <c r="I74">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52093,28 +52097,28 @@
         <v>1.4402569999999999</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D75">
         <v>0.59856299999999996</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F75" s="3">
         <v>6.9701459999999997</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H75">
         <v>2.3988659999999999</v>
       </c>
       <c r="I75">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52126,28 +52130,28 @@
         <v>1.4464459999999999</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D76">
         <v>0.62992599999999999</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F76" s="3">
         <v>7.045166</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H76">
         <v>2.4209969999999998</v>
       </c>
       <c r="I76">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52159,28 +52163,28 @@
         <v>1.445951</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D77">
         <v>0.57645299999999999</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F77" s="3">
         <v>6.9945000000000004</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H77">
         <v>2.3980450000000002</v>
       </c>
       <c r="I77">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52192,28 +52196,28 @@
         <v>1.445845</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D78">
         <v>0.57846699999999995</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F78" s="3">
         <v>6.9740989999999998</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H78">
         <v>2.4004080000000001</v>
       </c>
       <c r="I78">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52225,28 +52229,28 @@
         <v>1.4481189999999999</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D79">
         <v>0.57913499999999996</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F79" s="3">
         <v>7.0110029999999997</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H79">
         <v>2.4598879999999999</v>
       </c>
       <c r="I79">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52258,28 +52262,28 @@
         <v>1.437646</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D80">
         <v>0.57538</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F80" s="3">
         <v>7.016311</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H80">
         <v>2.3778160000000002</v>
       </c>
       <c r="I80">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52291,28 +52295,28 @@
         <v>1.454426</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D81">
         <v>0.57415099999999997</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F81" s="3">
         <v>6.9939879999999999</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H81">
         <v>2.3908489999999998</v>
       </c>
       <c r="I81">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52324,28 +52328,28 @@
         <v>1.4463299999999999</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D82">
         <v>0.57620099999999996</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F82" s="3">
         <v>7.0058600000000002</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H82">
         <v>2.3912620000000002</v>
       </c>
       <c r="I82">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52357,28 +52361,28 @@
         <v>1.449972</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D83">
         <v>0.57500899999999999</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F83" s="3">
         <v>7.0112940000000004</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H83">
         <v>2.4062000000000001</v>
       </c>
       <c r="I83">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52390,28 +52394,28 @@
         <v>1.446315</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D84">
         <v>0.57027600000000001</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F84" s="3">
         <v>6.9375229999999997</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H84">
         <v>2.3891960000000001</v>
       </c>
       <c r="I84">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52423,28 +52427,28 @@
         <v>1.447692</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D85">
         <v>0.57220899999999997</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F85" s="3">
         <v>6.9662129999999998</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H85">
         <v>2.3924850000000002</v>
       </c>
       <c r="I85">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52456,28 +52460,28 @@
         <v>1.446285</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D86">
         <v>0.567747</v>
       </c>
       <c r="E86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F86" s="3">
         <v>7.0352899999999998</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H86">
         <v>2.4068200000000002</v>
       </c>
       <c r="I86">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52489,28 +52493,28 @@
         <v>1.455792</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D87">
         <v>0.57556200000000002</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F87" s="3">
         <v>6.9910319999999997</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H87">
         <v>2.3931</v>
       </c>
       <c r="I87">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52522,28 +52526,28 @@
         <v>1.453292</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D88">
         <v>0.58006999999999997</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F88" s="3">
         <v>7.0523490000000004</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H88">
         <v>2.3980039999999998</v>
       </c>
       <c r="I88">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52555,28 +52559,28 @@
         <v>1.4531350000000001</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D89">
         <v>0.57700200000000001</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F89" s="3">
         <v>7.0392770000000002</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H89">
         <v>2.395187</v>
       </c>
       <c r="I89">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52588,28 +52592,28 @@
         <v>1.4426270000000001</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D90">
         <v>0.57887200000000005</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F90" s="3">
         <v>6.944299</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H90">
         <v>2.390091</v>
       </c>
       <c r="I90">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52621,28 +52625,28 @@
         <v>1.4471620000000001</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D91">
         <v>0.575488</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F91" s="3">
         <v>6.9788800000000002</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H91">
         <v>2.3959920000000001</v>
       </c>
       <c r="I91">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52654,28 +52658,28 @@
         <v>1.4462619999999999</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D92">
         <v>0.57765999999999995</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F92" s="3">
         <v>6.9786349999999997</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H92">
         <v>2.4047399999999999</v>
       </c>
       <c r="I92">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52687,28 +52691,28 @@
         <v>1.4472689999999999</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D93">
         <v>0.57903499999999997</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F93" s="3">
         <v>6.8987959999999999</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H93">
         <v>2.4007390000000002</v>
       </c>
       <c r="I93">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52720,28 +52724,28 @@
         <v>1.4528810000000001</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D94">
         <v>0.57693799999999995</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F94" s="3">
         <v>6.977716</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H94">
         <v>2.5108830000000002</v>
       </c>
       <c r="I94">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52753,28 +52757,28 @@
         <v>1.446445</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D95">
         <v>0.57930199999999998</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F95" s="3">
         <v>6.9171379999999996</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H95">
         <v>2.4035850000000001</v>
       </c>
       <c r="I95">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52786,28 +52790,28 @@
         <v>1.44852</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D96">
         <v>0.57349499999999998</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F96" s="3">
         <v>6.9954549999999998</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H96">
         <v>2.3945750000000001</v>
       </c>
       <c r="I96">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52819,28 +52823,28 @@
         <v>1.4463200000000001</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D97">
         <v>0.57555299999999998</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F97" s="3">
         <v>6.9626549999999998</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H97">
         <v>2.3938950000000001</v>
       </c>
       <c r="I97">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52852,28 +52856,28 @@
         <v>1.4436009999999999</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D98">
         <v>0.57879599999999998</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F98" s="3">
         <v>6.9927570000000001</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H98">
         <v>2.4232659999999999</v>
       </c>
       <c r="I98">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52885,28 +52889,28 @@
         <v>1.4479679999999999</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D99">
         <v>0.581067</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F99" s="3">
         <v>6.8969709999999997</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H99">
         <v>2.4045369999999999</v>
       </c>
       <c r="I99">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52918,28 +52922,28 @@
         <v>1.4409339999999999</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D100">
         <v>0.57701000000000002</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F100" s="3">
         <v>6.9740739999999999</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H100">
         <v>2.4419960000000001</v>
       </c>
       <c r="I100">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52951,28 +52955,28 @@
         <v>1.442126</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D101">
         <v>0.58339099999999999</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F101" s="3">
         <v>6.9097900000000001</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H101">
         <v>2.418399</v>
       </c>
       <c r="I101">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -52984,28 +52988,28 @@
         <v>1.4449689999999999</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4474527699999995</v>
       </c>
       <c r="D102">
         <v>0.57594999999999996</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57990707999999991</v>
       </c>
       <c r="F102" s="3">
         <v>6.9949310000000002</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9774088700000005</v>
       </c>
       <c r="H102">
         <v>2.3817710000000001</v>
       </c>
       <c r="I102">
-        <f>SUM($H$3:$H$102)/100</f>
+        <f t="shared" si="5"/>
         <v>2.4241572000000007</v>
       </c>
     </row>
@@ -56051,10 +56055,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA03A4D-9AB4-4EB9-892B-A7E29C01A44C}">
-  <dimension ref="B2:I102"/>
+  <dimension ref="B2:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56063,6 +56067,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -56082,3002 +56087,4292 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <v>1.252866</v>
+        <v>1.462831</v>
       </c>
       <c r="C3">
         <f>SUM(B3:B102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D3">
-        <v>0.37351600000000001</v>
+        <v>0.26403399999999999</v>
       </c>
       <c r="E3">
         <f>SUM($D$3:$D$102)/100</f>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F3">
-        <v>8.3022139999999993</v>
+        <v>6.9963519999999999</v>
       </c>
       <c r="G3">
         <f>SUM($F$3:$F$102)/100</f>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H3">
-        <v>1.338373</v>
+        <v>1.0816030000000001</v>
       </c>
       <c r="I3">
         <f>SUM($H$3:$H$102)/100</f>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
-        <v>1.319177</v>
+        <v>1.4498869999999999</v>
       </c>
       <c r="C4">
         <f>SUM(B3:B102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D4">
-        <v>0.36830299999999999</v>
+        <v>0.25533</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="0">SUM($D$3:$D$102)/100</f>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F4">
-        <v>8.4260370000000009</v>
+        <v>6.9072060000000004</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="1">SUM($F$3:$F$102)/100</f>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H4">
-        <v>1.3436570000000001</v>
+        <v>1.080114</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="2">SUM($H$3:$H$102)/100</f>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
-        <v>1.369513</v>
+        <v>1.4579740000000001</v>
       </c>
       <c r="C5">
         <f>SUM(B3:B102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D5">
-        <v>0.36464600000000003</v>
+        <v>0.26302399999999998</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F5">
-        <v>8.276211</v>
+        <v>6.8981529999999998</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H5">
-        <v>1.36886</v>
+        <v>1.0934820000000001</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
-        <v>1.329075</v>
+        <v>1.455964</v>
       </c>
       <c r="C6">
         <f>SUM(B3:B102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D6">
-        <v>0.36689699999999997</v>
+        <v>0.257716</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F6">
-        <v>8.2213899999999995</v>
+        <v>6.9684119999999998</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H6">
-        <v>1.383321</v>
+        <v>1.1023769999999999</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
-        <v>1.3321540000000001</v>
+        <v>1.4483790000000001</v>
       </c>
       <c r="C7">
         <f>SUM($B$3:$B$102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D7">
-        <v>0.35892099999999999</v>
+        <v>0.26282699999999998</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F7">
-        <v>8.253978</v>
+        <v>7.045242</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H7">
-        <v>1.3989370000000001</v>
+        <v>1.223678</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
-        <v>1.332354</v>
+        <v>1.4543029999999999</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C71" si="3">SUM($B$3:$B$102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D8">
-        <v>0.35389599999999999</v>
+        <v>0.260488</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F8">
-        <v>8.1758970000000009</v>
+        <v>6.9380579999999998</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H8">
-        <v>1.424658</v>
+        <v>1.0909260000000001</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>1.3836109999999999</v>
+        <v>1.45245</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D9">
-        <v>0.36166599999999999</v>
+        <v>0.25464199999999998</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F9">
-        <v>8.2262229999999992</v>
+        <v>6.9284720000000002</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H9">
-        <v>1.4111149999999999</v>
+        <v>1.093709</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
-        <v>1.37334</v>
+        <v>1.453508</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D10">
-        <v>0.35797499999999999</v>
+        <v>0.26061800000000002</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F10">
-        <v>8.277317</v>
+        <v>6.9409939999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H10">
-        <v>1.382028</v>
+        <v>1.1589259999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
-        <v>1.347756</v>
+        <v>1.460215</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D11">
-        <v>0.36010999999999999</v>
+        <v>0.254606</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F11">
-        <v>8.2833749999999995</v>
+        <v>6.9327399999999999</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H11">
-        <v>1.352792</v>
+        <v>1.1166499999999999</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
-        <v>1.3793439999999999</v>
+        <v>1.4531080000000001</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D12">
-        <v>0.35861700000000002</v>
+        <v>0.26048900000000003</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F12">
-        <v>8.0952420000000007</v>
+        <v>6.9829749999999997</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H12">
-        <v>1.342052</v>
+        <v>1.1173550000000001</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
-        <v>1.336219</v>
+        <v>1.4471069999999999</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D13">
-        <v>0.35858600000000002</v>
+        <v>0.26146200000000003</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F13">
-        <v>8.2111129999999992</v>
+        <v>6.9697420000000001</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H13">
-        <v>1.3274049999999999</v>
+        <v>1.1390199999999999</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
-        <v>1.2946</v>
+        <v>1.450939</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D14">
-        <v>0.36272500000000002</v>
+        <v>0.257216</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F14">
-        <v>8.3372659999999996</v>
+        <v>6.897386</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H14">
-        <v>1.3262879999999999</v>
+        <v>1.101661</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
-        <v>1.433254</v>
+        <v>1.4552700000000001</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D15">
-        <v>0.36035800000000001</v>
+        <v>0.25642999999999999</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F15">
-        <v>8.2908270000000002</v>
+        <v>6.9231009999999999</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H15">
-        <v>1.340557</v>
+        <v>1.0698799999999999</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <v>1.349235</v>
+        <v>1.4554009999999999</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D16">
-        <v>0.36246899999999999</v>
+        <v>0.256243</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F16">
-        <v>8.2422450000000005</v>
+        <v>6.9575009999999997</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H16">
-        <v>1.3522810000000001</v>
+        <v>1.0931960000000001</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>1.3623700000000001</v>
+        <v>1.4636210000000001</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D17">
-        <v>0.36361700000000002</v>
+        <v>0.26199800000000001</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F17">
-        <v>8.2030030000000007</v>
+        <v>6.884455</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H17">
-        <v>1.3422799999999999</v>
+        <v>1.0606230000000001</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <v>1.367362</v>
+        <v>1.4686680000000001</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D18">
-        <v>0.363875</v>
+        <v>0.25059599999999999</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F18">
-        <v>8.1122110000000003</v>
+        <v>6.8496680000000003</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H18">
-        <v>1.363167</v>
+        <v>1.084927</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
-        <v>1.3414740000000001</v>
+        <v>1.4548399999999999</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D19">
-        <v>0.36515500000000001</v>
+        <v>0.24889</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F19">
-        <v>8.1323159999999994</v>
+        <v>6.9149260000000004</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H19">
-        <v>1.3716200000000001</v>
+        <v>1.0756540000000001</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
-        <v>1.336633</v>
+        <v>1.536408</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D20">
-        <v>0.36669000000000002</v>
+        <v>0.25550200000000001</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F20">
-        <v>8.2106689999999993</v>
+        <v>6.9967180000000004</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H20">
-        <v>1.343188</v>
+        <v>1.1312009999999999</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
-        <v>1.289153</v>
+        <v>1.4572320000000001</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D21">
-        <v>0.36887900000000001</v>
+        <v>0.26236300000000001</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F21">
-        <v>8.0647369999999992</v>
+        <v>7.0068149999999996</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H21">
-        <v>1.350471</v>
+        <v>1.1016539999999999</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
-        <v>1.3828940000000001</v>
+        <v>1.4663079999999999</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D22">
-        <v>0.37250800000000001</v>
+        <v>0.26027299999999998</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F22">
-        <v>8.2760580000000008</v>
+        <v>6.8848690000000001</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H22">
-        <v>1.336703</v>
+        <v>1.095513</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
-        <v>1.343094</v>
+        <v>1.4622390000000001</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D23">
-        <v>0.367259</v>
+        <v>0.258384</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F23">
-        <v>8.223058</v>
+        <v>6.8712239999999998</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H23">
-        <v>1.3325119999999999</v>
+        <v>1.073715</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
-        <v>1.344652</v>
+        <v>1.459322</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D24">
-        <v>0.37165399999999998</v>
+        <v>0.25983099999999998</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F24">
-        <v>8.1735760000000006</v>
+        <v>6.9868600000000001</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H24">
-        <v>1.336546</v>
+        <v>1.0870070000000001</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
-        <v>1.3422780000000001</v>
+        <v>1.45252</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D25">
-        <v>0.38233800000000001</v>
+        <v>0.25938099999999997</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F25">
-        <v>8.3374020000000009</v>
+        <v>6.9893000000000001</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H25">
-        <v>1.3381749999999999</v>
+        <v>1.0852900000000001</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
-        <v>1.3842300000000001</v>
+        <v>1.459746</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D26">
-        <v>0.37426599999999999</v>
+        <v>0.26336500000000002</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F26">
-        <v>8.2493020000000001</v>
+        <v>6.981401</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H26">
-        <v>1.362045</v>
+        <v>1.0715539999999999</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>1.3529679999999999</v>
+        <v>1.4703349999999999</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D27">
-        <v>0.376633</v>
+        <v>0.26787699999999998</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F27">
-        <v>8.1334529999999994</v>
+        <v>6.9858919999999998</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H27">
-        <v>1.3821049999999999</v>
+        <v>1.134225</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <v>1.203292</v>
+        <v>1.4714</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D28">
-        <v>0.375056</v>
+        <v>0.26447900000000002</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F28">
-        <v>8.1707389999999993</v>
+        <v>6.934374</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H28">
-        <v>1.4046380000000001</v>
+        <v>1.0902989999999999</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
-        <v>1.3423389999999999</v>
+        <v>1.458294</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D29">
-        <v>0.36996200000000001</v>
+        <v>0.29459099999999999</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F29">
-        <v>8.248875</v>
+        <v>7.7527410000000003</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H29">
-        <v>1.3599810000000001</v>
+        <v>1.099229</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
-        <v>1.300033</v>
+        <v>1.4749859999999999</v>
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D30">
-        <v>0.36601</v>
+        <v>0.26245099999999999</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F30">
-        <v>8.3217759999999998</v>
+        <v>7.2383300000000004</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H30">
-        <v>1.3586849999999999</v>
+        <v>1.0842620000000001</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
-        <v>1.326557</v>
+        <v>1.454558</v>
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D31">
-        <v>0.37084499999999998</v>
+        <v>0.26406099999999999</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F31">
-        <v>8.2517600000000009</v>
+        <v>7.0065169999999997</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H31">
-        <v>1.355246</v>
+        <v>1.0998460000000001</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
-        <v>1.348641</v>
+        <v>1.4549319999999999</v>
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D32">
-        <v>0.36289199999999999</v>
+        <v>0.25744899999999998</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F32">
-        <v>8.1849939999999997</v>
+        <v>7.0128110000000001</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H32">
-        <v>1.3345990000000001</v>
+        <v>1.1099319999999999</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
-        <v>1.3734200000000001</v>
+        <v>1.4483980000000001</v>
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D33">
-        <v>0.36068499999999998</v>
+        <v>0.27091199999999999</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F33">
-        <v>8.3159659999999995</v>
+        <v>6.8814739999999999</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H33">
-        <v>1.3164979999999999</v>
+        <v>1.096735</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
-        <v>1.3429770000000001</v>
+        <v>1.471587</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D34">
-        <v>0.36895099999999997</v>
+        <v>0.26073400000000002</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F34">
-        <v>8.2066770000000009</v>
+        <v>7.062411</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H34">
-        <v>1.339156</v>
+        <v>1.162941</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
-        <v>1.3637030000000001</v>
+        <v>1.4560569999999999</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D35">
-        <v>0.36246299999999998</v>
+        <v>0.262679</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F35">
-        <v>8.2647919999999999</v>
+        <v>6.8858050000000004</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H35">
-        <v>1.3518650000000001</v>
+        <v>1.0981529999999999</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
-        <v>1.3953249999999999</v>
+        <v>1.4583440000000001</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D36">
-        <v>0.36308499999999999</v>
+        <v>0.26015199999999999</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F36">
-        <v>8.1026070000000008</v>
+        <v>7.0207009999999999</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H36">
-        <v>1.375712</v>
+        <v>1.091663</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
-        <v>1.247066</v>
+        <v>1.456556</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D37">
-        <v>0.36100599999999999</v>
+        <v>0.24899499999999999</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F37">
-        <v>8.1588639999999995</v>
+        <v>6.9294169999999999</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H37">
-        <v>1.384841</v>
+        <v>1.0936159999999999</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
-        <v>1.353836</v>
+        <v>1.459854</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D38">
-        <v>0.36391699999999999</v>
+        <v>0.26026300000000002</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F38">
-        <v>8.2965499999999999</v>
+        <v>6.9428140000000003</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H38">
-        <v>1.3445419999999999</v>
+        <v>1.1119840000000001</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
-        <v>1.3520529999999999</v>
+        <v>1.453033</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D39">
-        <v>0.36529299999999998</v>
+        <v>0.25309100000000001</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F39">
-        <v>8.1768210000000003</v>
+        <v>6.9593249999999998</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H39">
-        <v>1.333437</v>
+        <v>1.130177</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
-        <v>1.361551</v>
+        <v>1.449606</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D40">
-        <v>0.366174</v>
+        <v>0.26352500000000001</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F40">
-        <v>8.3297170000000005</v>
+        <v>7.0286929999999996</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H40">
-        <v>1.3436170000000001</v>
+        <v>1.087019</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
-        <v>1.3423909999999999</v>
+        <v>1.4594290000000001</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D41">
-        <v>0.37302000000000002</v>
+        <v>0.26771899999999998</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F41">
-        <v>8.2472799999999999</v>
+        <v>7.018294</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H41">
-        <v>1.332983</v>
+        <v>1.082605</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
-        <v>1.3566370000000001</v>
+        <v>1.516864</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D42">
-        <v>0.36660300000000001</v>
+        <v>0.26723200000000003</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F42">
-        <v>8.2575710000000004</v>
+        <v>6.931953</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H42">
-        <v>1.336781</v>
+        <v>1.089567</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
-        <v>1.318128</v>
+        <v>1.4571149999999999</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D43">
-        <v>0.375666</v>
+        <v>0.25326100000000001</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F43">
-        <v>8.2617949999999993</v>
+        <v>6.9221219999999999</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H43">
-        <v>1.3344609999999999</v>
+        <v>1.1046180000000001</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
-        <v>1.362744</v>
+        <v>1.456715</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D44">
-        <v>0.376137</v>
+        <v>0.25039099999999997</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F44">
-        <v>8.2151320000000005</v>
+        <v>6.9988510000000002</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H44">
-        <v>1.3397209999999999</v>
+        <v>1.1242730000000001</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
-        <v>1.368382</v>
+        <v>1.4509019999999999</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D45">
-        <v>0.37439800000000001</v>
+        <v>0.26191300000000001</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F45">
-        <v>8.1728299999999994</v>
+        <v>6.8934509999999998</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H45">
-        <v>1.3405469999999999</v>
+        <v>1.226564</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
-        <v>1.3904019999999999</v>
+        <v>1.452922</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D46">
-        <v>0.37387199999999998</v>
+        <v>0.26612799999999998</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F46">
-        <v>8.1827649999999998</v>
+        <v>6.9919279999999997</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H46">
-        <v>1.387151</v>
+        <v>1.1720060000000001</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
-        <v>1.3608169999999999</v>
+        <v>1.5017149999999999</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D47">
-        <v>0.368066</v>
+        <v>0.29281699999999999</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F47">
-        <v>8.0985239999999994</v>
+        <v>6.932061</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H47">
-        <v>1.328004</v>
+        <v>1.1557869999999999</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
-        <v>1.3578129999999999</v>
+        <v>1.456561</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D48">
-        <v>0.36486499999999999</v>
+        <v>0.26851999999999998</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F48">
-        <v>8.2801749999999998</v>
+        <v>6.8823670000000003</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H48">
-        <v>1.344166</v>
+        <v>1.167165</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P48">
+        <v>0.26403399999999999</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1.0816030000000001</v>
+      </c>
+      <c r="U48">
+        <v>0.37129400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
-        <v>1.369286</v>
+        <v>1.4570780000000001</v>
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D49">
-        <v>0.37343500000000002</v>
+        <v>0.263206</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F49">
-        <v>8.0564409999999995</v>
+        <v>6.8387409999999997</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H49">
-        <v>1.350128</v>
+        <v>1.2297260000000001</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P49">
+        <v>0.25533</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1.080114</v>
+      </c>
+      <c r="U49">
+        <v>0.35572399999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
-        <v>1.353062</v>
+        <v>1.4427509999999999</v>
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D50">
-        <v>0.36011100000000001</v>
+        <v>0.26542900000000003</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F50">
-        <v>8.31358</v>
+        <v>6.8802719999999997</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H50">
-        <v>1.3345199999999999</v>
+        <v>1.268481</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P50">
+        <v>0.26302399999999998</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1.0934820000000001</v>
+      </c>
+      <c r="U50">
+        <v>0.367811</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
-        <v>1.3650789999999999</v>
+        <v>1.4613780000000001</v>
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D51">
-        <v>0.36214600000000002</v>
+        <v>0.26113700000000001</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F51">
-        <v>8.1391969999999993</v>
+        <v>6.9143809999999997</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H51">
-        <v>1.352069</v>
+        <v>1.0751200000000001</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P51">
+        <v>0.257716</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1.1023769999999999</v>
+      </c>
+      <c r="U51">
+        <v>0.377577</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
-        <v>1.3333980000000001</v>
+        <v>1.452976</v>
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D52">
-        <v>0.36172500000000002</v>
+        <v>0.25598300000000002</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F52">
-        <v>8.2238100000000003</v>
+        <v>6.8953199999999999</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H52">
-        <v>1.332837</v>
+        <v>1.1420250000000001</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P52">
+        <v>0.26282699999999998</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1.223678</v>
+      </c>
+      <c r="U52">
+        <v>0.41321400000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
-        <v>1.3214589999999999</v>
+        <v>1.4594750000000001</v>
       </c>
       <c r="C53">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D53">
-        <v>0.362676</v>
+        <v>0.26494600000000001</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F53">
-        <v>8.2502560000000003</v>
+        <v>6.9611720000000004</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H53">
-        <v>1.3419019999999999</v>
+        <v>1.19899</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P53">
+        <v>0.260488</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1.0909260000000001</v>
+      </c>
+      <c r="U53">
+        <v>0.37340299999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
-        <v>1.3748370000000001</v>
+        <v>1.458037</v>
       </c>
       <c r="C54">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D54">
-        <v>0.36065900000000001</v>
+        <v>0.25973800000000002</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F54">
-        <v>8.0912229999999994</v>
+        <v>7.7376769999999997</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H54">
-        <v>1.379135</v>
+        <v>1.378228</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P54">
+        <v>0.25464199999999998</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1.093709</v>
+      </c>
+      <c r="U54">
+        <v>0.37982199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
-        <v>1.361877</v>
+        <v>1.4648000000000001</v>
       </c>
       <c r="C55">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D55">
-        <v>0.35767700000000002</v>
+        <v>0.26164300000000001</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F55">
-        <v>8.2402230000000003</v>
+        <v>7.1022400000000001</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H55">
-        <v>1.415135</v>
+        <v>1.1522600000000001</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P55">
+        <v>0.26061800000000002</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1.1589259999999999</v>
+      </c>
+      <c r="U55">
+        <v>0.36429499999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
-        <v>1.31819</v>
+        <v>1.455786</v>
       </c>
       <c r="C56">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D56">
-        <v>0.36553999999999998</v>
+        <v>0.26692199999999999</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F56">
-        <v>8.1882180000000009</v>
+        <v>7.0565930000000003</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H56">
-        <v>1.3316509999999999</v>
+        <v>1.1595219999999999</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P56">
+        <v>0.254606</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1.1166499999999999</v>
+      </c>
+      <c r="U56">
+        <v>0.37204799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
-        <v>1.3180540000000001</v>
+        <v>1.462504</v>
       </c>
       <c r="C57">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D57">
-        <v>0.36456100000000002</v>
+        <v>0.26109599999999999</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F57">
-        <v>8.3256169999999994</v>
+        <v>7.020715</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H57">
-        <v>1.3374200000000001</v>
+        <v>1.1301030000000001</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P57">
+        <v>0.26048900000000003</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1.1173550000000001</v>
+      </c>
+      <c r="U57">
+        <v>0.373168</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <v>1.350902</v>
+        <v>1.4584269999999999</v>
       </c>
       <c r="C58">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D58">
-        <v>0.36351899999999998</v>
+        <v>0.27061600000000002</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F58">
-        <v>8.0554070000000007</v>
+        <v>6.9237880000000001</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H58">
-        <v>1.3318080000000001</v>
+        <v>1.1407910000000001</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P58">
+        <v>0.26146200000000003</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1.1390199999999999</v>
+      </c>
+      <c r="U58">
+        <v>0.39934399999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <v>1.350346</v>
+        <v>1.469741</v>
       </c>
       <c r="C59">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D59">
-        <v>0.36870000000000003</v>
+        <v>0.261994</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F59">
-        <v>8.2337570000000007</v>
+        <v>7.0071060000000003</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H59">
-        <v>1.3268249999999999</v>
+        <v>1.0813550000000001</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P59">
+        <v>0.257216</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1.101661</v>
+      </c>
+      <c r="U59">
+        <v>0.37387900000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <v>1.3543350000000001</v>
+        <v>1.4589510000000001</v>
       </c>
       <c r="C60">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D60">
-        <v>0.36519099999999999</v>
+        <v>0.25515900000000002</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F60">
-        <v>8.2911619999999999</v>
+        <v>6.829002</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H60">
-        <v>1.3290709999999999</v>
+        <v>1.0776730000000001</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P60">
+        <v>0.25642999999999999</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1.0698799999999999</v>
+      </c>
+      <c r="U60">
+        <v>0.36607200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <v>1.3511340000000001</v>
+        <v>1.4626760000000001</v>
       </c>
       <c r="C61">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D61">
-        <v>0.362265</v>
+        <v>0.25998199999999999</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F61">
-        <v>8.2147900000000007</v>
+        <v>6.9826459999999999</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H61">
-        <v>1.327642</v>
+        <v>1.1095539999999999</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P61">
+        <v>0.256243</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1.0931960000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.38328600000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
-        <v>1.3736090000000001</v>
+        <v>1.4590209999999999</v>
       </c>
       <c r="C62">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D62">
-        <v>0.36250300000000002</v>
+        <v>0.26608100000000001</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F62">
-        <v>8.1524160000000006</v>
+        <v>6.8442980000000002</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H62">
-        <v>1.3480780000000001</v>
+        <v>1.099942</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P62">
+        <v>0.26199800000000001</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1.0606230000000001</v>
+      </c>
+      <c r="U62">
+        <v>0.35642400000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
-        <v>1.3528119999999999</v>
+        <v>1.4607859999999999</v>
       </c>
       <c r="C63">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D63">
-        <v>0.40915200000000002</v>
+        <v>0.25830900000000001</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F63">
-        <v>8.2313600000000005</v>
+        <v>6.8896059999999997</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H63">
-        <v>1.361092</v>
+        <v>1.101469</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P63">
+        <v>0.25059599999999999</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1.084927</v>
+      </c>
+      <c r="U63">
+        <v>0.36396600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
-        <v>1.370096</v>
+        <v>1.4566429999999999</v>
       </c>
       <c r="C64">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D64">
-        <v>0.37183500000000003</v>
+        <v>0.28960999999999998</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F64">
-        <v>8.0825259999999997</v>
+        <v>6.8965800000000002</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H64">
-        <v>1.368242</v>
+        <v>1.065841</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P64">
+        <v>0.24889</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1.0756540000000001</v>
+      </c>
+      <c r="U64">
+        <v>0.358904</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
-        <v>1.420561</v>
+        <v>1.4486889999999999</v>
       </c>
       <c r="C65">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D65">
-        <v>0.37091200000000002</v>
+        <v>0.26533000000000001</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F65">
-        <v>8.1759760000000004</v>
+        <v>6.9652130000000003</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H65">
-        <v>1.346759</v>
+        <v>1.1292279999999999</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P65">
+        <v>0.25550200000000001</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1.1312009999999999</v>
+      </c>
+      <c r="U65">
+        <v>0.37114999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
-        <v>1.344746</v>
+        <v>1.448666</v>
       </c>
       <c r="C66">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D66">
-        <v>0.37565900000000002</v>
+        <v>0.26536799999999999</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F66">
-        <v>8.2916050000000006</v>
+        <v>6.9404159999999999</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H66">
-        <v>1.3508800000000001</v>
+        <v>1.072819</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P66">
+        <v>0.26236300000000001</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1.1016539999999999</v>
+      </c>
+      <c r="U66">
+        <v>0.36215000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
-        <v>1.381767</v>
+        <v>1.4526790000000001</v>
       </c>
       <c r="C67">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D67">
-        <v>0.362902</v>
+        <v>0.263098</v>
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F67">
-        <v>8.0227459999999997</v>
+        <v>6.922968</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H67">
-        <v>1.344632</v>
+        <v>1.062022</v>
       </c>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P67">
+        <v>0.26027299999999998</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1.095513</v>
+      </c>
+      <c r="U67">
+        <v>0.37679499999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
-        <v>1.396658</v>
+        <v>1.4482539999999999</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D68">
-        <v>0.36463899999999999</v>
+        <v>0.28083799999999998</v>
       </c>
       <c r="E68">
         <f t="shared" ref="E68:E102" si="4">SUM($D$3:$D$102)/100</f>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F68">
-        <v>8.1938709999999997</v>
+        <v>7.0426219999999997</v>
       </c>
       <c r="G68">
         <f t="shared" ref="G68:G102" si="5">SUM($F$3:$F$102)/100</f>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H68">
-        <v>1.328714</v>
+        <v>1.066457</v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I102" si="6">SUM($H$3:$H$102)/100</f>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P68">
+        <v>0.258384</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1.073715</v>
+      </c>
+      <c r="U68">
+        <v>0.37121500000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
-        <v>1.3646529999999999</v>
+        <v>1.4520189999999999</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D69">
-        <v>0.36783199999999999</v>
+        <v>0.25820799999999999</v>
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F69">
-        <v>8.1389089999999999</v>
+        <v>6.989147</v>
       </c>
       <c r="G69">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H69">
-        <v>1.3344609999999999</v>
+        <v>1.0804419999999999</v>
       </c>
       <c r="I69">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P69">
+        <v>0.25983099999999998</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1.0870070000000001</v>
+      </c>
+      <c r="U69">
+        <v>0.36786400000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
-        <v>1.363942</v>
+        <v>1.464132</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D70">
-        <v>0.36221500000000001</v>
+        <v>0.254942</v>
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F70">
-        <v>8.2341270000000009</v>
+        <v>7.0083529999999996</v>
       </c>
       <c r="G70">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H70">
-        <v>1.3402860000000001</v>
+        <v>1.085375</v>
       </c>
       <c r="I70">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P70">
+        <v>0.25938099999999997</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1.0852900000000001</v>
+      </c>
+      <c r="U70">
+        <v>0.36109400000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
-        <v>1.3598870000000001</v>
+        <v>1.45703</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D71">
-        <v>0.36253400000000002</v>
+        <v>0.26812000000000002</v>
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F71">
-        <v>8.0738400000000006</v>
+        <v>6.9848520000000001</v>
       </c>
       <c r="G71">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H71">
-        <v>1.356201</v>
+        <v>1.0710550000000001</v>
       </c>
       <c r="I71">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P71">
+        <v>0.26336500000000002</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1.0715539999999999</v>
+      </c>
+      <c r="U71">
+        <v>0.35757800000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
-        <v>1.3017399999999999</v>
+        <v>1.4539500000000001</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C102" si="7">SUM($B$3:$B$102)/100</f>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D72">
-        <v>0.36687199999999998</v>
+        <v>0.26060499999999998</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F72">
-        <v>8.2690400000000004</v>
+        <v>7.1179379999999997</v>
       </c>
       <c r="G72">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H72">
-        <v>1.379567</v>
+        <v>1.1054120000000001</v>
       </c>
       <c r="I72">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P72">
+        <v>0.26787699999999998</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1.134225</v>
+      </c>
+      <c r="U72">
+        <v>0.38331100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
-        <v>1.3681970000000001</v>
+        <v>1.465182</v>
       </c>
       <c r="C73">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D73">
-        <v>0.36869800000000003</v>
+        <v>0.25974000000000003</v>
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F73">
-        <v>8.2991270000000004</v>
+        <v>7.0318860000000001</v>
       </c>
       <c r="G73">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H73">
-        <v>1.3777090000000001</v>
+        <v>1.074632</v>
       </c>
       <c r="I73">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P73">
+        <v>0.26447900000000002</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1.0902989999999999</v>
+      </c>
+      <c r="U73">
+        <v>0.37498799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
-        <v>1.3336170000000001</v>
+        <v>1.4539770000000001</v>
       </c>
       <c r="C74">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D74">
-        <v>0.366568</v>
+        <v>0.26347199999999998</v>
       </c>
       <c r="E74">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F74">
-        <v>8.2199249999999999</v>
+        <v>7.0281690000000001</v>
       </c>
       <c r="G74">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H74">
-        <v>1.3612919999999999</v>
+        <v>1.1582429999999999</v>
       </c>
       <c r="I74">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P74">
+        <v>0.29459099999999999</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1.099229</v>
+      </c>
+      <c r="U74">
+        <v>0.382135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
-        <v>1.3702259999999999</v>
+        <v>1.4601710000000001</v>
       </c>
       <c r="C75">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D75">
-        <v>0.36595</v>
+        <v>0.26516699999999999</v>
       </c>
       <c r="E75">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F75">
-        <v>8.1759620000000002</v>
+        <v>6.9085390000000002</v>
       </c>
       <c r="G75">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H75">
-        <v>1.338123</v>
+        <v>1.093798</v>
       </c>
       <c r="I75">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P75">
+        <v>0.26245099999999999</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1.0842620000000001</v>
+      </c>
+      <c r="U75">
+        <v>0.36205399999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
-        <v>1.3623529999999999</v>
+        <v>1.4589380000000001</v>
       </c>
       <c r="C76">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D76">
-        <v>0.36659000000000003</v>
+        <v>0.26435199999999998</v>
       </c>
       <c r="E76">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F76">
-        <v>8.2816340000000004</v>
+        <v>7.0048589999999997</v>
       </c>
       <c r="G76">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H76">
-        <v>1.351656</v>
+        <v>1.1035649999999999</v>
       </c>
       <c r="I76">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P76">
+        <v>0.26406099999999999</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1.0998460000000001</v>
+      </c>
+      <c r="U76">
+        <v>0.377724</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
-        <v>1.3532120000000001</v>
+        <v>1.459171</v>
       </c>
       <c r="C77">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D77">
-        <v>0.36033500000000002</v>
+        <v>0.26350699999999999</v>
       </c>
       <c r="E77">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F77">
-        <v>8.2021139999999999</v>
+        <v>6.9914249999999996</v>
       </c>
       <c r="G77">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H77">
-        <v>1.342271</v>
+        <v>1.1321369999999999</v>
       </c>
       <c r="I77">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P77">
+        <v>0.25744899999999998</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1.1099319999999999</v>
+      </c>
+      <c r="U77">
+        <v>0.37609500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
-        <v>1.3564799999999999</v>
+        <v>1.4482189999999999</v>
       </c>
       <c r="C78">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D78">
-        <v>0.35528700000000002</v>
+        <v>0.266374</v>
       </c>
       <c r="E78">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F78">
-        <v>8.309901</v>
+        <v>7.0050470000000002</v>
       </c>
       <c r="G78">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H78">
-        <v>1.342948</v>
+        <v>1.0540369999999999</v>
       </c>
       <c r="I78">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P78">
+        <v>0.27091199999999999</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>1.096735</v>
+      </c>
+      <c r="U78">
+        <v>0.38096200000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
-        <v>1.3217000000000001</v>
+        <v>1.4492640000000001</v>
       </c>
       <c r="C79">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D79">
-        <v>0.35942200000000002</v>
+        <v>0.29417500000000002</v>
       </c>
       <c r="E79">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F79">
-        <v>8.2982110000000002</v>
+        <v>7.733911</v>
       </c>
       <c r="G79">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H79">
-        <v>1.326721</v>
+        <v>1.067896</v>
       </c>
       <c r="I79">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P79">
+        <v>0.26073400000000002</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1.162941</v>
+      </c>
+      <c r="U79">
+        <v>0.397233</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
-        <v>1.3444659999999999</v>
+        <v>1.4607140000000001</v>
       </c>
       <c r="C80">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D80">
-        <v>0.35989700000000002</v>
+        <v>0.26263599999999998</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F80">
-        <v>8.2757629999999995</v>
+        <v>7.0179479999999996</v>
       </c>
       <c r="G80">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H80">
-        <v>1.3411630000000001</v>
+        <v>1.0772470000000001</v>
       </c>
       <c r="I80">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P80">
+        <v>0.262679</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1.0981529999999999</v>
+      </c>
+      <c r="U80">
+        <v>0.37353799999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
-        <v>1.3819049999999999</v>
+        <v>1.450437</v>
       </c>
       <c r="C81">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D81">
-        <v>0.36507200000000001</v>
+        <v>0.24715899999999999</v>
       </c>
       <c r="E81">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F81">
-        <v>8.3612669999999998</v>
+        <v>7.0502539999999998</v>
       </c>
       <c r="G81">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H81">
-        <v>1.344581</v>
+        <v>1.0673429999999999</v>
       </c>
       <c r="I81">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P81">
+        <v>0.26015199999999999</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1.091663</v>
+      </c>
+      <c r="U81">
+        <v>0.37463400000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
-        <v>1.3843669999999999</v>
+        <v>1.4568019999999999</v>
       </c>
       <c r="C82">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D82">
-        <v>0.357825</v>
+        <v>0.27279300000000001</v>
       </c>
       <c r="E82">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F82">
-        <v>8.0220590000000005</v>
+        <v>7.1530480000000001</v>
       </c>
       <c r="G82">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H82">
-        <v>1.351728</v>
+        <v>1.069358</v>
       </c>
       <c r="I82">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P82">
+        <v>0.24899499999999999</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1.0936159999999999</v>
+      </c>
+      <c r="U82">
+        <v>0.37330000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
-        <v>1.377942</v>
+        <v>1.467314</v>
       </c>
       <c r="C83">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D83">
-        <v>0.36135099999999998</v>
+        <v>0.27113700000000002</v>
       </c>
       <c r="E83">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F83">
-        <v>8.2092229999999997</v>
+        <v>7.0972109999999997</v>
       </c>
       <c r="G83">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H83">
-        <v>1.3718090000000001</v>
+        <v>1.0623990000000001</v>
       </c>
       <c r="I83">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P83">
+        <v>0.26026300000000002</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>1.1119840000000001</v>
+      </c>
+      <c r="U83">
+        <v>0.37671900000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
-        <v>1.377353</v>
+        <v>1.4552320000000001</v>
       </c>
       <c r="C84">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D84">
-        <v>0.36396600000000001</v>
+        <v>0.26635999999999999</v>
       </c>
       <c r="E84">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F84">
-        <v>8.1625270000000008</v>
+        <v>6.9620069999999998</v>
       </c>
       <c r="G84">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H84">
-        <v>1.326417</v>
+        <v>1.1237410000000001</v>
       </c>
       <c r="I84">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P84">
+        <v>0.25309100000000001</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>1.130177</v>
+      </c>
+      <c r="U84">
+        <v>0.391677</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
-        <v>1.3644080000000001</v>
+        <v>1.4659169999999999</v>
       </c>
       <c r="C85">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D85">
-        <v>0.36648399999999998</v>
+        <v>0.257521</v>
       </c>
       <c r="E85">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F85">
-        <v>8.2489500000000007</v>
+        <v>6.9653980000000004</v>
       </c>
       <c r="G85">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H85">
-        <v>1.321464</v>
+        <v>1.068052</v>
       </c>
       <c r="I85">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P85">
+        <v>0.26352500000000001</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>1.087019</v>
+      </c>
+      <c r="U85">
+        <v>0.36557000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
-        <v>1.36934</v>
+        <v>1.466329</v>
       </c>
       <c r="C86">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D86">
-        <v>0.36600199999999999</v>
+        <v>0.2611</v>
       </c>
       <c r="E86">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F86">
-        <v>8.0740599999999993</v>
+        <v>7.0754640000000002</v>
       </c>
       <c r="G86">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H86">
-        <v>1.3416330000000001</v>
+        <v>1.0970120000000001</v>
       </c>
       <c r="I86">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P86">
+        <v>0.26771899999999998</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>1.082605</v>
+      </c>
+      <c r="U86">
+        <v>0.35639999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
-        <v>1.3561369999999999</v>
+        <v>1.45648</v>
       </c>
       <c r="C87">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D87">
-        <v>0.37921100000000002</v>
+        <v>0.26247999999999999</v>
       </c>
       <c r="E87">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F87">
-        <v>8.1084250000000004</v>
+        <v>6.990265</v>
       </c>
       <c r="G87">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H87">
-        <v>1.3474120000000001</v>
+        <v>1.0985009999999999</v>
       </c>
       <c r="I87">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P87">
+        <v>0.26723200000000003</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>1.089567</v>
+      </c>
+      <c r="U87">
+        <v>0.37266500000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
-        <v>1.373737</v>
+        <v>1.46051</v>
       </c>
       <c r="C88">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D88">
-        <v>0.37787199999999999</v>
+        <v>0.26555000000000001</v>
       </c>
       <c r="E88">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F88">
-        <v>8.3006010000000003</v>
+        <v>7.0312530000000004</v>
       </c>
       <c r="G88">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H88">
-        <v>1.3531599999999999</v>
+        <v>1.0843259999999999</v>
       </c>
       <c r="I88">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P88">
+        <v>0.25326100000000001</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>1.1046180000000001</v>
+      </c>
+      <c r="U88">
+        <v>0.38067499999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
-        <v>1.3550219999999999</v>
+        <v>1.456877</v>
       </c>
       <c r="C89">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D89">
-        <v>0.37895400000000001</v>
+        <v>0.27101700000000001</v>
       </c>
       <c r="E89">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F89">
-        <v>8.1545810000000003</v>
+        <v>7.0100920000000002</v>
       </c>
       <c r="G89">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H89">
-        <v>1.3931690000000001</v>
+        <v>1.1414519999999999</v>
       </c>
       <c r="I89">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P89">
+        <v>0.25039099999999997</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>1.1242730000000001</v>
+      </c>
+      <c r="U89">
+        <v>0.38388299999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
-        <v>1.3591599999999999</v>
+        <v>1.463508</v>
       </c>
       <c r="C90">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D90">
-        <v>0.37156899999999998</v>
+        <v>0.27334199999999997</v>
       </c>
       <c r="E90">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F90">
-        <v>8.2607479999999995</v>
+        <v>6.9939309999999999</v>
       </c>
       <c r="G90">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H90">
-        <v>1.402903</v>
+        <v>1.25088</v>
       </c>
       <c r="I90">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P90">
+        <v>0.26191300000000001</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>1.226564</v>
+      </c>
+      <c r="U90">
+        <v>0.41669699999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
-        <v>1.3573</v>
+        <v>1.455989</v>
       </c>
       <c r="C91">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D91">
-        <v>0.37506099999999998</v>
+        <v>0.26726899999999998</v>
       </c>
       <c r="E91">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F91">
-        <v>8.1654339999999994</v>
+        <v>6.9821419999999996</v>
       </c>
       <c r="G91">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H91">
-        <v>1.4141870000000001</v>
+        <v>1.318727</v>
       </c>
       <c r="I91">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P91">
+        <v>0.26612799999999998</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>1.1720060000000001</v>
+      </c>
+      <c r="U91">
+        <v>0.41469299999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
-        <v>1.3270459999999999</v>
+        <v>1.460491</v>
       </c>
       <c r="C92">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D92">
-        <v>0.37986999999999999</v>
+        <v>0.26072800000000002</v>
       </c>
       <c r="E92">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F92">
-        <v>8.2583970000000004</v>
+        <v>7.7795990000000002</v>
       </c>
       <c r="G92">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H92">
-        <v>1.4250529999999999</v>
+        <v>1.226404</v>
       </c>
       <c r="I92">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P92">
+        <v>0.29281699999999999</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>1.1557869999999999</v>
+      </c>
+      <c r="U92">
+        <v>0.38608100000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
-        <v>1.2432609999999999</v>
+        <v>1.4561820000000001</v>
       </c>
       <c r="C93">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D93">
-        <v>0.37213099999999999</v>
+        <v>0.26202599999999998</v>
       </c>
       <c r="E93">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F93">
-        <v>8.2674140000000005</v>
+        <v>6.9729429999999999</v>
       </c>
       <c r="G93">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H93">
-        <v>1.3885959999999999</v>
+        <v>1.1010230000000001</v>
       </c>
       <c r="I93">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P93">
+        <v>0.26851999999999998</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>1.167165</v>
+      </c>
+      <c r="U93">
+        <v>0.40605599999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
-        <v>1.3667659999999999</v>
+        <v>1.4571289999999999</v>
       </c>
       <c r="C94">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D94">
-        <v>0.36918600000000001</v>
+        <v>0.25654700000000003</v>
       </c>
       <c r="E94">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F94">
-        <v>8.181521</v>
+        <v>7.04209</v>
       </c>
       <c r="G94">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H94">
-        <v>1.3900840000000001</v>
+        <v>1.0812520000000001</v>
       </c>
       <c r="I94">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P94">
+        <v>0.263206</v>
+      </c>
+      <c r="Q94">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="T94">
+        <v>1.2297260000000001</v>
+      </c>
+      <c r="U94">
+        <v>0.41360000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
-        <v>1.3515200000000001</v>
+        <v>1.887529</v>
       </c>
       <c r="C95">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D95">
-        <v>0.36953900000000001</v>
+        <v>0.258272</v>
       </c>
       <c r="E95">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F95">
-        <v>8.1783710000000003</v>
+        <v>7.06386</v>
       </c>
       <c r="G95">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H95">
-        <v>1.389607</v>
+        <v>1.087245</v>
       </c>
       <c r="I95">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P95">
+        <v>0.26542900000000003</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>1.268481</v>
+      </c>
+      <c r="U95">
+        <v>0.40098800000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
-        <v>1.373826</v>
+        <v>1.5128470000000001</v>
       </c>
       <c r="C96">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D96">
-        <v>0.37138700000000002</v>
+        <v>0.25474999999999998</v>
       </c>
       <c r="E96">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F96">
-        <v>8.1622330000000005</v>
+        <v>7.1409330000000004</v>
       </c>
       <c r="G96">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H96">
-        <v>1.3237369999999999</v>
+        <v>1.0506770000000001</v>
       </c>
       <c r="I96">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P96">
+        <v>0.26113700000000001</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>1.0751200000000001</v>
+      </c>
+      <c r="U96">
+        <v>0.36615700000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
-        <v>1.3692120000000001</v>
+        <v>1.5208870000000001</v>
       </c>
       <c r="C97">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D97">
-        <v>0.36286099999999999</v>
+        <v>0.26180900000000001</v>
       </c>
       <c r="E97">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F97">
-        <v>8.1651509999999998</v>
+        <v>6.9757210000000001</v>
       </c>
       <c r="G97">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H97">
-        <v>1.3361730000000001</v>
+        <v>1.0648439999999999</v>
       </c>
       <c r="I97">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P97">
+        <v>0.25598300000000002</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>1.1420250000000001</v>
+      </c>
+      <c r="U97">
+        <v>0.36991800000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
-        <v>1.3292489999999999</v>
+        <v>1.4508019999999999</v>
       </c>
       <c r="C98">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D98">
-        <v>0.366091</v>
+        <v>0.28459099999999998</v>
       </c>
       <c r="E98">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F98">
-        <v>8.1956959999999999</v>
+        <v>7.0016509999999998</v>
       </c>
       <c r="G98">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H98">
-        <v>1.356676</v>
+        <v>1.086651</v>
       </c>
       <c r="I98">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P98">
+        <v>0.26494600000000001</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>1.19899</v>
+      </c>
+      <c r="U98">
+        <v>0.41411599999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
-        <v>1.3765989999999999</v>
+        <v>1.456372</v>
       </c>
       <c r="C99">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D99">
-        <v>0.36296400000000001</v>
+        <v>0.25389899999999999</v>
       </c>
       <c r="E99">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F99">
-        <v>8.1306180000000001</v>
+        <v>7.0190929999999998</v>
       </c>
       <c r="G99">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H99">
-        <v>1.350589</v>
+        <v>1.113883</v>
       </c>
       <c r="I99">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P99">
+        <v>0.25973800000000002</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>1.378228</v>
+      </c>
+      <c r="U99">
+        <v>0.46177600000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
-        <v>1.3931210000000001</v>
+        <v>1.4432149999999999</v>
       </c>
       <c r="C100">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D100">
-        <v>0.35910300000000001</v>
+        <v>0.25851600000000002</v>
       </c>
       <c r="E100">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F100">
-        <v>8.2477260000000001</v>
+        <v>7.016718</v>
       </c>
       <c r="G100">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H100">
-        <v>1.361877</v>
+        <v>1.6495649999999999</v>
       </c>
       <c r="I100">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P100">
+        <v>0.26164300000000001</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>1.1522600000000001</v>
+      </c>
+      <c r="U100">
+        <v>0.384237</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
-        <v>1.362754</v>
+        <v>1.462934</v>
       </c>
       <c r="C101">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D101">
-        <v>0.35879699999999998</v>
+        <v>0.27122200000000002</v>
       </c>
       <c r="E101">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F101">
-        <v>8.0558130000000006</v>
+        <v>6.9523910000000004</v>
       </c>
       <c r="G101">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H101">
-        <v>1.3600410000000001</v>
+        <v>1.1167769999999999</v>
       </c>
       <c r="I101">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P101">
+        <v>0.26692199999999999</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>1.1595219999999999</v>
+      </c>
+      <c r="U101">
+        <v>0.40033600000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" s="4">
-        <v>1.289809</v>
+        <v>1.4516500000000001</v>
       </c>
       <c r="C102">
         <f t="shared" si="7"/>
-        <v>1.3505022800000004</v>
+        <v>1.46465921</v>
       </c>
       <c r="D102">
-        <v>0.36007499999999998</v>
+        <v>0.25767899999999999</v>
       </c>
       <c r="E102">
         <f t="shared" si="4"/>
-        <v>0.36673902999999991</v>
+        <v>0.26298497999999998</v>
       </c>
       <c r="F102">
-        <v>8.3517550000000007</v>
+        <v>7.029623</v>
       </c>
       <c r="G102">
         <f t="shared" si="5"/>
-        <v>8.2129663400000013</v>
+        <v>7.006440190000002</v>
       </c>
       <c r="H102">
-        <v>1.3270390000000001</v>
+        <v>1.156469</v>
       </c>
       <c r="I102">
         <f t="shared" si="6"/>
-        <v>1.3540664000000004</v>
+        <v>1.1200440699999996</v>
+      </c>
+      <c r="P102">
+        <v>0.26109599999999999</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>1.1301030000000001</v>
+      </c>
+      <c r="U102">
+        <v>0.36657200000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>0.27061600000000002</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>1.1407910000000001</v>
+      </c>
+      <c r="U103">
+        <v>0.39344800000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>0.261994</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>1.0813550000000001</v>
+      </c>
+      <c r="U104">
+        <v>0.37139499999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>0.25515900000000002</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>1.0776730000000001</v>
+      </c>
+      <c r="U105">
+        <v>0.35884100000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>0.25998199999999999</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>1.1095539999999999</v>
+      </c>
+      <c r="U106">
+        <v>0.38317499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>0.26608100000000001</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>1.099942</v>
+      </c>
+      <c r="U107">
+        <v>0.38061400000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>0.25830900000000001</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>1.101469</v>
+      </c>
+      <c r="U108">
+        <v>0.37315399999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>0.28960999999999998</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>1.065841</v>
+      </c>
+      <c r="U109">
+        <v>0.357628</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>0.26533000000000001</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>1.1292279999999999</v>
+      </c>
+      <c r="U110">
+        <v>0.37240099999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>0.26536799999999999</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>1.072819</v>
+      </c>
+      <c r="U111">
+        <v>0.36025200000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>0.263098</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>1.062022</v>
+      </c>
+      <c r="U112">
+        <v>0.35544199999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>0.28083799999999998</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>1.066457</v>
+      </c>
+      <c r="U113">
+        <v>0.356707</v>
+      </c>
+    </row>
+    <row r="114" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>0.25820799999999999</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>1.0804419999999999</v>
+      </c>
+      <c r="U114">
+        <v>0.36221199999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>0.254942</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>1.085375</v>
+      </c>
+      <c r="U115">
+        <v>0.36729499999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>0.26812000000000002</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>1.0710550000000001</v>
+      </c>
+      <c r="U116">
+        <v>0.358927</v>
+      </c>
+    </row>
+    <row r="117" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>0.26060499999999998</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>1.1054120000000001</v>
+      </c>
+      <c r="U117">
+        <v>0.386241</v>
+      </c>
+    </row>
+    <row r="118" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P118">
+        <v>0.25974000000000003</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>1.074632</v>
+      </c>
+      <c r="U118">
+        <v>0.36446400000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>0.26347199999999998</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>1.1582429999999999</v>
+      </c>
+      <c r="U119">
+        <v>0.42518600000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P120">
+        <v>0.26516699999999999</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>1.093798</v>
+      </c>
+      <c r="U120">
+        <v>0.37495299999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P121">
+        <v>0.26435199999999998</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>1.1035649999999999</v>
+      </c>
+      <c r="U121">
+        <v>0.37482100000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P122">
+        <v>0.26350699999999999</v>
+      </c>
+      <c r="Q122">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T122">
+        <v>1.1321369999999999</v>
+      </c>
+      <c r="U122">
+        <v>0.36717699999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <v>0.266374</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>1.0540369999999999</v>
+      </c>
+      <c r="U123">
+        <v>0.35279500000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P124">
+        <v>0.29417500000000002</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>1.067896</v>
+      </c>
+      <c r="U124">
+        <v>0.36988399999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <v>0.26263599999999998</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>1.0772470000000001</v>
+      </c>
+      <c r="U125">
+        <v>0.36455500000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P126">
+        <v>0.24715899999999999</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>1.0673429999999999</v>
+      </c>
+      <c r="U126">
+        <v>0.36190600000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P127">
+        <v>0.27279300000000001</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>1.069358</v>
+      </c>
+      <c r="U127">
+        <v>0.35975099999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P128">
+        <v>0.27113700000000002</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>1.0623990000000001</v>
+      </c>
+      <c r="U128">
+        <v>0.35581000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P129">
+        <v>0.26635999999999999</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>1.1237410000000001</v>
+      </c>
+      <c r="U129">
+        <v>0.35934500000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P130">
+        <v>0.257521</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>1.068052</v>
+      </c>
+      <c r="U130">
+        <v>0.36229099999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <v>0.2611</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>1.0970120000000001</v>
+      </c>
+      <c r="U131">
+        <v>0.38117000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P132">
+        <v>0.26247999999999999</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>1.0985009999999999</v>
+      </c>
+      <c r="U132">
+        <v>0.36676799999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P133">
+        <v>0.26555000000000001</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>1.0843259999999999</v>
+      </c>
+      <c r="U133">
+        <v>0.36550100000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P134">
+        <v>0.27101700000000001</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>1.1414519999999999</v>
+      </c>
+      <c r="U134">
+        <v>0.39645900000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P135">
+        <v>0.27334199999999997</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>1.25088</v>
+      </c>
+      <c r="U135">
+        <v>0.42741299999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P136">
+        <v>0.26726899999999998</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>1.318727</v>
+      </c>
+      <c r="U136">
+        <v>0.38842500000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P137">
+        <v>0.26072800000000002</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>1.226404</v>
+      </c>
+      <c r="U137">
+        <v>0.40057599999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P138">
+        <v>0.26202599999999998</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>1.1010230000000001</v>
+      </c>
+      <c r="U138">
+        <v>0.35210599999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P139">
+        <v>0.25654700000000003</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>1.0812520000000001</v>
+      </c>
+      <c r="U139">
+        <v>0.34459299999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P140">
+        <v>0.258272</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>1.087245</v>
+      </c>
+      <c r="U140">
+        <v>0.36305300000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P141">
+        <v>0.25474999999999998</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>1.0506770000000001</v>
+      </c>
+      <c r="U141">
+        <v>0.34937000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P142">
+        <v>0.26180900000000001</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>1.0648439999999999</v>
+      </c>
+      <c r="U142">
+        <v>0.363313</v>
+      </c>
+    </row>
+    <row r="143" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P143">
+        <v>0.28459099999999998</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>1.086651</v>
+      </c>
+      <c r="U143">
+        <v>0.37503399999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P144">
+        <v>0.25389899999999999</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>1.113883</v>
+      </c>
+      <c r="U144">
+        <v>0.366012</v>
+      </c>
+    </row>
+    <row r="145" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P145">
+        <v>0.25851600000000002</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>1.6495649999999999</v>
+      </c>
+      <c r="U145">
+        <v>0.61163199999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P146">
+        <v>0.27122200000000002</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>1.1167769999999999</v>
+      </c>
+      <c r="U146">
+        <v>0.42537999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P147">
+        <v>0.25767899999999999</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>1.156469</v>
+      </c>
+      <c r="U147">
+        <v>0.35822999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -59089,10 +60384,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260DA895-A0FC-48FA-BBF0-0658697ABE93}">
   <sheetPr codeName="Foglio4"/>
-  <dimension ref="B2:X41"/>
+  <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59173,6 +60468,13 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <f>'24CPU'!C3</f>
+        <v>1.46465921</v>
+      </c>
       <c r="V7">
         <v>16</v>
       </c>
@@ -59181,6 +60483,15 @@
         <v>8.2129663400000013</v>
       </c>
     </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>24</v>
+      </c>
+      <c r="W8">
+        <f>'24CPU'!G3</f>
+        <v>7.006440190000002</v>
+      </c>
+    </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W29" s="5"/>
     </row>
@@ -59230,6 +60541,13 @@
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <f>'24CPU'!E3</f>
+        <v>0.26298497999999998</v>
+      </c>
       <c r="V37" t="s">
         <v>7</v>
       </c>
@@ -59271,6 +60589,15 @@
       <c r="W41">
         <f>'16CPU'!I3</f>
         <v>1.3540664000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>24</v>
+      </c>
+      <c r="W42">
+        <f>'24CPU'!I3</f>
+        <v>1.1200440699999996</v>
       </c>
     </row>
   </sheetData>
